--- a/DiskSpeedResult.xlsx
+++ b/DiskSpeedResult.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piete\OneDrive\Documents\Blog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piete\source\repos\DiskSpeedTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:40009_{05026BE2-27EC-4A26-8D7C-051B36C1E40E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CAF39A28-1B50-479D-A686-75902EBFCEB6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA86F65-A5F8-4F10-B0AC-0A691E8AD929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DiskSpeedResult_Ubuntu_Cache" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,14 @@
     <sheet name="682_Disk" sheetId="6" r:id="rId3"/>
     <sheet name="682_Cache_IODirect" sheetId="7" r:id="rId4"/>
     <sheet name="682_Cache_IODirect_CaseInsen" sheetId="8" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId6"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId7"/>
+    <sheet name="683_Cache" sheetId="9" r:id="rId6"/>
+    <sheet name="Proxmox_ZFS" sheetId="10" r:id="rId7"/>
+    <sheet name="Aggregate" sheetId="3" r:id="rId8"/>
+    <sheet name="Chart" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId8"/>
+    <pivotCache cacheId="9" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="273">
   <si>
     <t>UTC</t>
   </si>
@@ -642,6 +644,222 @@
   </si>
   <si>
     <t>BlockSize</t>
+  </si>
+  <si>
+    <t>2020-05-25T17:53:12</t>
+  </si>
+  <si>
+    <t>\\Server-1\CacheSpeedTest\DiskSpeedData.dat</t>
+  </si>
+  <si>
+    <t>2020-05-25T17:55:47</t>
+  </si>
+  <si>
+    <t>2020-05-25T17:58:22</t>
+  </si>
+  <si>
+    <t>2020-05-25T18:00:57</t>
+  </si>
+  <si>
+    <t>2020-05-25T18:03:33</t>
+  </si>
+  <si>
+    <t>2020-05-25T18:06:08</t>
+  </si>
+  <si>
+    <t>2020-05-25T18:08:43</t>
+  </si>
+  <si>
+    <t>2020-05-25T18:11:19</t>
+  </si>
+  <si>
+    <t>2020-05-25T18:13:54</t>
+  </si>
+  <si>
+    <t>2020-05-25T18:16:29</t>
+  </si>
+  <si>
+    <t>2020-05-25T18:19:05</t>
+  </si>
+  <si>
+    <t>2020-05-25T18:21:41</t>
+  </si>
+  <si>
+    <t>2020-05-25T18:24:17</t>
+  </si>
+  <si>
+    <t>2020-05-25T18:26:54</t>
+  </si>
+  <si>
+    <t>2020-05-25T18:29:31</t>
+  </si>
+  <si>
+    <t>2020-05-25T18:32:06</t>
+  </si>
+  <si>
+    <t>2020-05-25T18:34:45</t>
+  </si>
+  <si>
+    <t>2020-05-25T18:37:25</t>
+  </si>
+  <si>
+    <t>2020-05-25T18:40:00</t>
+  </si>
+  <si>
+    <t>2020-05-25T18:42:40</t>
+  </si>
+  <si>
+    <t>2020-05-25T18:45:24</t>
+  </si>
+  <si>
+    <t>2020-05-25T18:48:00</t>
+  </si>
+  <si>
+    <t>2020-05-25T18:50:52</t>
+  </si>
+  <si>
+    <t>2020-05-25T18:53:46</t>
+  </si>
+  <si>
+    <t>2020-05-25T18:56:21</t>
+  </si>
+  <si>
+    <t>2020-05-25T18:59:25</t>
+  </si>
+  <si>
+    <t>2020-05-25T19:02:42</t>
+  </si>
+  <si>
+    <t>2020-05-25T19:05:18</t>
+  </si>
+  <si>
+    <t>2020-05-25T19:09:07</t>
+  </si>
+  <si>
+    <t>2020-05-25T19:13:05</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>FileSize</t>
+  </si>
+  <si>
+    <t>WriteRatio</t>
+  </si>
+  <si>
+    <t>ThreadCount</t>
+  </si>
+  <si>
+    <t>OutstandingOperations</t>
+  </si>
+  <si>
+    <t>WarmupTime</t>
+  </si>
+  <si>
+    <t>TestTime</t>
+  </si>
+  <si>
+    <t>Bytes</t>
+  </si>
+  <si>
+    <t>IOS</t>
+  </si>
+  <si>
+    <t>2020-05-25T16:13:26</t>
+  </si>
+  <si>
+    <t>\\server-2\Public\\DiskSpeedData.dat</t>
+  </si>
+  <si>
+    <t>2020-05-25T16:16:01</t>
+  </si>
+  <si>
+    <t>2020-05-25T16:18:36</t>
+  </si>
+  <si>
+    <t>2020-05-25T16:21:11</t>
+  </si>
+  <si>
+    <t>2020-05-25T16:23:46</t>
+  </si>
+  <si>
+    <t>2020-05-25T16:26:21</t>
+  </si>
+  <si>
+    <t>2020-05-25T16:28:57</t>
+  </si>
+  <si>
+    <t>2020-05-25T16:31:32</t>
+  </si>
+  <si>
+    <t>2020-05-25T16:34:07</t>
+  </si>
+  <si>
+    <t>2020-05-25T16:36:42</t>
+  </si>
+  <si>
+    <t>2020-05-25T16:39:17</t>
+  </si>
+  <si>
+    <t>2020-05-25T16:41:52</t>
+  </si>
+  <si>
+    <t>2020-05-25T16:44:27</t>
+  </si>
+  <si>
+    <t>2020-05-25T16:47:02</t>
+  </si>
+  <si>
+    <t>2020-05-25T16:49:37</t>
+  </si>
+  <si>
+    <t>2020-05-25T16:52:12</t>
+  </si>
+  <si>
+    <t>2020-05-25T16:54:47</t>
+  </si>
+  <si>
+    <t>2020-05-25T16:57:22</t>
+  </si>
+  <si>
+    <t>2020-05-25T16:59:57</t>
+  </si>
+  <si>
+    <t>2020-05-25T17:02:32</t>
+  </si>
+  <si>
+    <t>2020-05-25T17:05:07</t>
+  </si>
+  <si>
+    <t>2020-05-25T17:07:43</t>
+  </si>
+  <si>
+    <t>2020-05-25T17:10:18</t>
+  </si>
+  <si>
+    <t>2020-05-25T17:12:53</t>
+  </si>
+  <si>
+    <t>2020-05-25T17:15:28</t>
+  </si>
+  <si>
+    <t>2020-05-25T17:18:03</t>
+  </si>
+  <si>
+    <t>2020-05-25T17:20:38</t>
+  </si>
+  <si>
+    <t>2020-05-25T17:23:14</t>
+  </si>
+  <si>
+    <t>2020-05-25T17:25:49</t>
+  </si>
+  <si>
+    <t>2020-05-25T17:28:24</t>
+  </si>
+  <si>
+    <t>ZFS</t>
   </si>
 </sst>
 </file>
@@ -1214,7 +1432,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[DiskSpeedResult_Ubuntu_Cache.xlsx]Sheet4!PivotTable2</c:name>
+    <c:name>[DiskSpeedResult.xlsx]Chart!PivotTable2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -3233,6 +3451,62 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="65"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -3245,7 +3519,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$B$1:$B$2</c:f>
+              <c:f>Chart!$B$1:$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3266,7 +3540,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet4!$A$3:$A$36</c:f>
+              <c:f>Chart!$A$3:$A$36</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="30"/>
                 <c:lvl>
@@ -3377,7 +3651,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$B$3:$B$36</c:f>
+              <c:f>Chart!$B$3:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -3485,7 +3759,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$C$1:$C$2</c:f>
+              <c:f>Chart!$C$1:$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3506,7 +3780,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet4!$A$3:$A$36</c:f>
+              <c:f>Chart!$A$3:$A$36</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="30"/>
                 <c:lvl>
@@ -3617,7 +3891,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$C$3:$C$36</c:f>
+              <c:f>Chart!$C$3:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -3725,7 +3999,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$D$1:$D$2</c:f>
+              <c:f>Chart!$D$1:$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3746,7 +4020,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet4!$A$3:$A$36</c:f>
+              <c:f>Chart!$A$3:$A$36</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="30"/>
                 <c:lvl>
@@ -3857,7 +4131,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$D$3:$D$36</c:f>
+              <c:f>Chart!$D$3:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -3965,11 +4239,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$E$1:$E$2</c:f>
+              <c:f>Chart!$E$1:$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>IODirect</c:v>
+                  <c:v>ZFS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3986,7 +4260,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet4!$A$3:$A$36</c:f>
+              <c:f>Chart!$A$3:$A$36</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="30"/>
                 <c:lvl>
@@ -4097,99 +4371,99 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$E$3:$E$36</c:f>
+              <c:f>Chart!$E$3:$E$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>27.505957031249999</c:v>
+                  <c:v>59.563899739583334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56.942057291666664</c:v>
+                  <c:v>98.227213541666671</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>97.379687500000003</c:v>
+                  <c:v>111.87044270833333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>110.0578125</c:v>
+                  <c:v>112.69427083333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>110.29166666666667</c:v>
+                  <c:v>112.9765625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>110.89895833333334</c:v>
+                  <c:v>113.065625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>111.14166666666667</c:v>
+                  <c:v>113.07916666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>111.32083333333334</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>111.2</c:v>
+                  <c:v>113.11666666666666</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>111.23333333333333</c:v>
+                  <c:v>113.13333333333334</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5356119791666667</c:v>
+                  <c:v>10.95595703125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1068359375000001</c:v>
+                  <c:v>21.491601562500001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.056640625</c:v>
+                  <c:v>42.040624999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0143229166666667</c:v>
+                  <c:v>76.868489583333329</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0828125</c:v>
+                  <c:v>125.66979166666667</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0770833333333334</c:v>
+                  <c:v>171.10312500000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>194.31874999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1041666666666667</c:v>
+                  <c:v>199.4375</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0249999999999999</c:v>
+                  <c:v>200.16666666666666</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0833333333333333</c:v>
+                  <c:v>188.71666666666667</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.27161458333333333</c:v>
+                  <c:v>6.8543619791666668</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.53704427083333328</c:v>
+                  <c:v>12.689388020833333</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.49895833333333334</c:v>
+                  <c:v>25.044010416666666</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.53281250000000002</c:v>
+                  <c:v>45.584895833333334</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.5229166666666667</c:v>
+                  <c:v>85.649479166666666</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.53229166666666672</c:v>
+                  <c:v>111.97083333333333</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.55625000000000002</c:v>
+                  <c:v>112.24375000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.61250000000000004</c:v>
+                  <c:v>112.28333333333333</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.54166666666666663</c:v>
+                  <c:v>112.3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.58333333333333337</c:v>
+                  <c:v>112.28333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4197,246 +4471,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-43A9-49FB-90BE-3E2F59D42F44}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$F$1:$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CaseInsensitive</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet4!$A$3:$A$36</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="30"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>4KiB</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>8KiB</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>16KiB</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>32KiB</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>64KiB</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>128KiB</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>256KiB</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>512KiB</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>1MiB</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>2MiB</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>4KiB</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>8KiB</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>16KiB</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>32KiB</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>64KiB</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>128KiB</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>256KiB</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>512KiB</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>1MiB</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>2MiB</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>4KiB</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>8KiB</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>16KiB</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>32KiB</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>64KiB</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>128KiB</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>256KiB</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>512KiB</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>1MiB</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>2MiB</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Read</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>ReadWrite</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>Write</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet4!$F$3:$F$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>28.179459635416666</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>56.698632812500001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>98.123046875</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>59.814583333333331</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>102.3953125</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>103.62291666666667</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>110.01041666666667</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>110.79166666666667</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>110.90833333333333</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>110.21666666666667</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.49254557291666667</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.96966145833333328</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.92760416666666667</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.91223958333333333</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.96458333333333335</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.95416666666666672</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.99583333333333335</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.96250000000000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.97499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.98333333333333328</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.25462239583333335</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.45540364583333331</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.46445312500000002</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.47630208333333335</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.47916666666666669</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.48958333333333331</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.50416666666666665</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.58333333333333337</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-43A9-49FB-90BE-3E2F59D42F44}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5207,15 +5241,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5244,21 +5278,22 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Pieter Viljoen" refreshedDate="43870.622365625" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="150" xr:uid="{956B1721-2D62-47F9-9E98-938213C11058}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Pieter Viljoen" refreshedDate="43976.779093287034" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="180" xr:uid="{F4519464-A54F-41F1-9339-DB3E15D364FC}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:L151" sheet="Sheet2"/>
+    <worksheetSource ref="A1:L181" sheet="Aggregate"/>
   </cacheSource>
   <cacheFields count="12">
     <cacheField name="UTC" numFmtId="0">
       <sharedItems/>
     </cacheField>
     <cacheField name=" Target" numFmtId="0">
-      <sharedItems count="5">
+      <sharedItems count="6">
         <s v="Ubuntu"/>
         <s v="UnraidUser"/>
         <s v="UnraidDisk"/>
         <s v="IODirect"/>
         <s v="CaseInsensitive"/>
+        <s v="ZFS"/>
       </sharedItems>
     </cacheField>
     <cacheField name=" FileSize" numFmtId="0">
@@ -5279,13 +5314,10 @@
       </sharedItems>
     </cacheField>
     <cacheField name=" WriteRatio" numFmtId="0">
-      <sharedItems count="6">
+      <sharedItems count="3">
         <s v="Read"/>
         <s v="ReadWrite"/>
         <s v="Write"/>
-        <s v=" ReadWrite" u="1"/>
-        <s v=" Read" u="1"/>
-        <s v=" Write" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name=" ThreadCount" numFmtId="0">
@@ -5301,13 +5333,13 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="120" maxValue="120"/>
     </cacheField>
     <cacheField name=" Bytes" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="28225536" maxValue="22810722304"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="28225536" maxValue="25186795520"/>
     </cacheField>
     <cacheField name=" IOS" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="32" maxValue="1041608"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="32" maxValue="1829803"/>
     </cacheField>
     <cacheField name="MBPS" numFmtId="4">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.22431640624999999" maxValue="181.28333333333333"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.22431640624999999" maxValue="200.16666666666666"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -5319,7 +5351,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="150">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="180">
   <r>
     <s v="2020-02-03T00:27:26"/>
     <x v="0"/>
@@ -7420,21 +7452,442 @@
     <n v="35"/>
     <n v="0.58333333333333337"/>
   </r>
+  <r>
+    <s v="2020-05-25T16:13:26"/>
+    <x v="5"/>
+    <n v="68719476736"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="30"/>
+    <n v="120"/>
+    <n v="7494873088"/>
+    <n v="1829803"/>
+    <n v="59.563899739583334"/>
+  </r>
+  <r>
+    <s v="2020-05-25T16:16:01"/>
+    <x v="5"/>
+    <n v="68719476736"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="30"/>
+    <n v="120"/>
+    <n v="1378578432"/>
+    <n v="336567"/>
+    <n v="10.95595703125"/>
+  </r>
+  <r>
+    <s v="2020-05-25T16:18:36"/>
+    <x v="5"/>
+    <n v="68719476736"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="30"/>
+    <n v="120"/>
+    <n v="862478336"/>
+    <n v="210566"/>
+    <n v="6.8543619791666668"/>
+  </r>
+  <r>
+    <s v="2020-05-25T16:21:11"/>
+    <x v="5"/>
+    <n v="68719476736"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="30"/>
+    <n v="120"/>
+    <n v="12359843840"/>
+    <n v="1508770"/>
+    <n v="98.227213541666671"/>
+  </r>
+  <r>
+    <s v="2020-05-25T16:23:46"/>
+    <x v="5"/>
+    <n v="68719476736"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="30"/>
+    <n v="120"/>
+    <n v="2704269312"/>
+    <n v="330111"/>
+    <n v="21.491601562500001"/>
+  </r>
+  <r>
+    <s v="2020-05-25T16:26:21"/>
+    <x v="5"/>
+    <n v="68719476736"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="30"/>
+    <n v="120"/>
+    <n v="1596694528"/>
+    <n v="194909"/>
+    <n v="12.689388020833333"/>
+  </r>
+  <r>
+    <s v="2020-05-25T16:28:57"/>
+    <x v="5"/>
+    <n v="68719476736"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="30"/>
+    <n v="120"/>
+    <n v="14076559360"/>
+    <n v="859165"/>
+    <n v="111.87044270833333"/>
+  </r>
+  <r>
+    <s v="2020-05-25T16:31:32"/>
+    <x v="5"/>
+    <n v="68719476736"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="30"/>
+    <n v="120"/>
+    <n v="5289934848"/>
+    <n v="322872"/>
+    <n v="42.040624999999999"/>
+  </r>
+  <r>
+    <s v="2020-05-25T16:34:07"/>
+    <x v="5"/>
+    <n v="68719476736"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="30"/>
+    <n v="120"/>
+    <n v="3151265792"/>
+    <n v="192338"/>
+    <n v="25.044010416666666"/>
+  </r>
+  <r>
+    <s v="2020-05-25T16:36:42"/>
+    <x v="5"/>
+    <n v="68719476736"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="30"/>
+    <n v="120"/>
+    <n v="14180220928"/>
+    <n v="432746"/>
+    <n v="112.69427083333333"/>
+  </r>
+  <r>
+    <s v="2020-05-25T16:39:17"/>
+    <x v="5"/>
+    <n v="68719476736"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="30"/>
+    <n v="120"/>
+    <n v="9672294400"/>
+    <n v="295175"/>
+    <n v="76.868489583333329"/>
+  </r>
+  <r>
+    <s v="2020-05-25T16:41:52"/>
+    <x v="5"/>
+    <n v="68719476736"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="30"/>
+    <n v="120"/>
+    <n v="5735907328"/>
+    <n v="175046"/>
+    <n v="45.584895833333334"/>
+  </r>
+  <r>
+    <s v="2020-05-25T16:44:27"/>
+    <x v="5"/>
+    <n v="68719476736"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="30"/>
+    <n v="120"/>
+    <n v="14215741440"/>
+    <n v="216915"/>
+    <n v="112.9765625"/>
+  </r>
+  <r>
+    <s v="2020-05-25T16:47:02"/>
+    <x v="5"/>
+    <n v="68719476736"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="30"/>
+    <n v="120"/>
+    <n v="15812919296"/>
+    <n v="241286"/>
+    <n v="125.66979166666667"/>
+  </r>
+  <r>
+    <s v="2020-05-25T16:49:37"/>
+    <x v="5"/>
+    <n v="68719476736"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="30"/>
+    <n v="120"/>
+    <n v="10777198592"/>
+    <n v="164447"/>
+    <n v="85.649479166666666"/>
+  </r>
+  <r>
+    <s v="2020-05-25T16:52:12"/>
+    <x v="5"/>
+    <n v="68719476736"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="30"/>
+    <n v="120"/>
+    <n v="14226948096"/>
+    <n v="108543"/>
+    <n v="113.065625"/>
+  </r>
+  <r>
+    <s v="2020-05-25T16:54:47"/>
+    <x v="5"/>
+    <n v="68719476736"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="30"/>
+    <n v="120"/>
+    <n v="21529755648"/>
+    <n v="164259"/>
+    <n v="171.10312500000001"/>
+  </r>
+  <r>
+    <s v="2020-05-25T16:57:22"/>
+    <x v="5"/>
+    <n v="68719476736"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="30"/>
+    <n v="120"/>
+    <n v="14089191424"/>
+    <n v="107492"/>
+    <n v="111.97083333333333"/>
+  </r>
+  <r>
+    <s v="2020-05-25T16:59:57"/>
+    <x v="5"/>
+    <n v="68719476736"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="30"/>
+    <n v="120"/>
+    <n v="14228652032"/>
+    <n v="54278"/>
+    <n v="113.07916666666667"/>
+  </r>
+  <r>
+    <s v="2020-05-25T17:02:32"/>
+    <x v="5"/>
+    <n v="68719476736"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="30"/>
+    <n v="120"/>
+    <n v="24450957312"/>
+    <n v="93273"/>
+    <n v="194.31874999999999"/>
+  </r>
+  <r>
+    <s v="2020-05-25T17:05:07"/>
+    <x v="5"/>
+    <n v="68719476736"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="30"/>
+    <n v="120"/>
+    <n v="14123532288"/>
+    <n v="53877"/>
+    <n v="112.24375000000001"/>
+  </r>
+  <r>
+    <s v="2020-05-25T17:07:43"/>
+    <x v="5"/>
+    <n v="68719476736"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="30"/>
+    <n v="120"/>
+    <n v="14218690560"/>
+    <n v="27120"/>
+    <n v="113"/>
+  </r>
+  <r>
+    <s v="2020-05-25T17:10:18"/>
+    <x v="5"/>
+    <n v="68719476736"/>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="30"/>
+    <n v="120"/>
+    <n v="25095045120"/>
+    <n v="47865"/>
+    <n v="199.4375"/>
+  </r>
+  <r>
+    <s v="2020-05-25T17:12:53"/>
+    <x v="5"/>
+    <n v="68719476736"/>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="30"/>
+    <n v="120"/>
+    <n v="14128513024"/>
+    <n v="26948"/>
+    <n v="112.28333333333333"/>
+  </r>
+  <r>
+    <s v="2020-05-25T17:15:28"/>
+    <x v="5"/>
+    <n v="68719476736"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="30"/>
+    <n v="120"/>
+    <n v="14233370624"/>
+    <n v="13574"/>
+    <n v="113.11666666666666"/>
+  </r>
+  <r>
+    <s v="2020-05-25T17:18:03"/>
+    <x v="5"/>
+    <n v="68719476736"/>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="30"/>
+    <n v="120"/>
+    <n v="25186795520"/>
+    <n v="24020"/>
+    <n v="200.16666666666666"/>
+  </r>
+  <r>
+    <s v="2020-05-25T17:20:38"/>
+    <x v="5"/>
+    <n v="68719476736"/>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="30"/>
+    <n v="120"/>
+    <n v="14130610176"/>
+    <n v="13476"/>
+    <n v="112.3"/>
+  </r>
+  <r>
+    <s v="2020-05-25T17:23:14"/>
+    <x v="5"/>
+    <n v="68719476736"/>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="30"/>
+    <n v="120"/>
+    <n v="14235467776"/>
+    <n v="6788"/>
+    <n v="113.13333333333334"/>
+  </r>
+  <r>
+    <s v="2020-05-25T17:25:49"/>
+    <x v="5"/>
+    <n v="68719476736"/>
+    <x v="9"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="30"/>
+    <n v="120"/>
+    <n v="23746052096"/>
+    <n v="11323"/>
+    <n v="188.71666666666667"/>
+  </r>
+  <r>
+    <s v="2020-05-25T17:28:24"/>
+    <x v="5"/>
+    <n v="68719476736"/>
+    <x v="9"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="30"/>
+    <n v="120"/>
+    <n v="14128513024"/>
+    <n v="6737"/>
+    <n v="112.28333333333333"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{790F5548-16B3-4CD3-B004-E26C03E4ABEA}" name="PivotTable2" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A1:G36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{38E03CB2-C8B0-40B2-BDD3-7D090070DC29}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A1:F36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
-      <items count="6">
+      <items count="7">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7455,13 +7908,10 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="7">
+      <items count="4">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
-        <item m="1" x="4"/>
-        <item m="1" x="3"/>
-        <item m="1" x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7584,7 +8034,7 @@
   <colFields count="1">
     <field x="1"/>
   </colFields>
-  <colItems count="6">
+  <colItems count="5">
     <i>
       <x/>
     </i>
@@ -7595,10 +8045,7 @@
       <x v="2"/>
     </i>
     <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
+      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -7607,7 +8054,7 @@
   <dataFields count="1">
     <dataField name="Sum of MBPS" fld="11" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="6">
+  <chartFormats count="15">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -7673,6 +8120,114 @@
           </reference>
           <reference field="1" count="1" selected="0">
             <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="65" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="66" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="67" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="68" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="69" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="70" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="71" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="72" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="73" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
           </reference>
         </references>
       </pivotArea>
@@ -12442,7 +12997,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13551,27 +14106,2252 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L151"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB8E66E9-7CE8-4A9A-8DFC-228B62EF229A}">
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O89" sqref="O89"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2">
+        <v>68719476736</v>
+      </c>
+      <c r="D2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <v>30</v>
+      </c>
+      <c r="I2">
+        <v>120</v>
+      </c>
+      <c r="J2">
+        <v>3611385856</v>
+      </c>
+      <c r="K2">
+        <v>881686</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3">
+        <v>68719476736</v>
+      </c>
+      <c r="D3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>30</v>
+      </c>
+      <c r="I3">
+        <v>120</v>
+      </c>
+      <c r="J3">
+        <v>51732480</v>
+      </c>
+      <c r="K3">
+        <v>12630</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4">
+        <v>68719476736</v>
+      </c>
+      <c r="D4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4">
+        <v>120</v>
+      </c>
+      <c r="J4">
+        <v>25886720</v>
+      </c>
+      <c r="K4">
+        <v>6320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5">
+        <v>68719476736</v>
+      </c>
+      <c r="D5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <v>120</v>
+      </c>
+      <c r="J5">
+        <v>4293541888</v>
+      </c>
+      <c r="K5">
+        <v>524114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6">
+        <v>68719476736</v>
+      </c>
+      <c r="D6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6">
+        <v>120</v>
+      </c>
+      <c r="J6">
+        <v>94486528</v>
+      </c>
+      <c r="K6">
+        <v>11534</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7">
+        <v>68719476736</v>
+      </c>
+      <c r="D7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7">
+        <v>120</v>
+      </c>
+      <c r="J7">
+        <v>50503680</v>
+      </c>
+      <c r="K7">
+        <v>6165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8">
+        <v>68719476736</v>
+      </c>
+      <c r="D8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>30</v>
+      </c>
+      <c r="I8">
+        <v>120</v>
+      </c>
+      <c r="J8">
+        <v>7668973568</v>
+      </c>
+      <c r="K8">
+        <v>468077</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9">
+        <v>68719476736</v>
+      </c>
+      <c r="D9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>30</v>
+      </c>
+      <c r="I9">
+        <v>120</v>
+      </c>
+      <c r="J9">
+        <v>109330432</v>
+      </c>
+      <c r="K9">
+        <v>6673</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10">
+        <v>68719476736</v>
+      </c>
+      <c r="D10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>30</v>
+      </c>
+      <c r="I10">
+        <v>120</v>
+      </c>
+      <c r="J10">
+        <v>55115776</v>
+      </c>
+      <c r="K10">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11">
+        <v>68719476736</v>
+      </c>
+      <c r="D11" t="s">
+        <v>191</v>
+      </c>
+      <c r="E11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>30</v>
+      </c>
+      <c r="I11">
+        <v>120</v>
+      </c>
+      <c r="J11">
+        <v>11071422464</v>
+      </c>
+      <c r="K11">
+        <v>337873</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12">
+        <v>68719476736</v>
+      </c>
+      <c r="D12" t="s">
+        <v>191</v>
+      </c>
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>30</v>
+      </c>
+      <c r="I12">
+        <v>120</v>
+      </c>
+      <c r="J12">
+        <v>110002176</v>
+      </c>
+      <c r="K12">
+        <v>3357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13">
+        <v>68719476736</v>
+      </c>
+      <c r="D13" t="s">
+        <v>191</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13">
+        <v>30</v>
+      </c>
+      <c r="I13">
+        <v>120</v>
+      </c>
+      <c r="J13">
+        <v>55083008</v>
+      </c>
+      <c r="K13">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>214</v>
+      </c>
+      <c r="B14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14">
+        <v>68719476736</v>
+      </c>
+      <c r="D14" t="s">
+        <v>192</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="H14">
+        <v>30</v>
+      </c>
+      <c r="I14">
+        <v>120</v>
+      </c>
+      <c r="J14">
+        <v>13711376384</v>
+      </c>
+      <c r="K14">
+        <v>209219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>215</v>
+      </c>
+      <c r="B15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15">
+        <v>68719476736</v>
+      </c>
+      <c r="D15" t="s">
+        <v>192</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
+      <c r="H15">
+        <v>30</v>
+      </c>
+      <c r="I15">
+        <v>120</v>
+      </c>
+      <c r="J15">
+        <v>108724224</v>
+      </c>
+      <c r="K15">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>216</v>
+      </c>
+      <c r="B16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16">
+        <v>68719476736</v>
+      </c>
+      <c r="D16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+      <c r="H16">
+        <v>30</v>
+      </c>
+      <c r="I16">
+        <v>120</v>
+      </c>
+      <c r="J16">
+        <v>54788096</v>
+      </c>
+      <c r="K16">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>217</v>
+      </c>
+      <c r="B17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17">
+        <v>68719476736</v>
+      </c>
+      <c r="D17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
+      <c r="H17">
+        <v>30</v>
+      </c>
+      <c r="I17">
+        <v>120</v>
+      </c>
+      <c r="J17">
+        <v>11265507328</v>
+      </c>
+      <c r="K17">
+        <v>85949</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>218</v>
+      </c>
+      <c r="B18" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18">
+        <v>68719476736</v>
+      </c>
+      <c r="D18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>8</v>
+      </c>
+      <c r="H18">
+        <v>30</v>
+      </c>
+      <c r="I18">
+        <v>120</v>
+      </c>
+      <c r="J18">
+        <v>101187584</v>
+      </c>
+      <c r="K18">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>219</v>
+      </c>
+      <c r="B19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19">
+        <v>68719476736</v>
+      </c>
+      <c r="D19" t="s">
+        <v>193</v>
+      </c>
+      <c r="E19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>8</v>
+      </c>
+      <c r="H19">
+        <v>30</v>
+      </c>
+      <c r="I19">
+        <v>120</v>
+      </c>
+      <c r="J19">
+        <v>50331648</v>
+      </c>
+      <c r="K19">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>220</v>
+      </c>
+      <c r="B20" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20">
+        <v>68719476736</v>
+      </c>
+      <c r="D20" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>8</v>
+      </c>
+      <c r="H20">
+        <v>30</v>
+      </c>
+      <c r="I20">
+        <v>120</v>
+      </c>
+      <c r="J20">
+        <v>13145997312</v>
+      </c>
+      <c r="K20">
+        <v>50148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B21" t="s">
+        <v>202</v>
+      </c>
+      <c r="C21">
+        <v>68719476736</v>
+      </c>
+      <c r="D21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>8</v>
+      </c>
+      <c r="H21">
+        <v>30</v>
+      </c>
+      <c r="I21">
+        <v>120</v>
+      </c>
+      <c r="J21">
+        <v>109314048</v>
+      </c>
+      <c r="K21">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>222</v>
+      </c>
+      <c r="B22" t="s">
+        <v>202</v>
+      </c>
+      <c r="C22">
+        <v>68719476736</v>
+      </c>
+      <c r="D22" t="s">
+        <v>194</v>
+      </c>
+      <c r="E22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <v>30</v>
+      </c>
+      <c r="I22">
+        <v>120</v>
+      </c>
+      <c r="J22">
+        <v>50069504</v>
+      </c>
+      <c r="K22">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>223</v>
+      </c>
+      <c r="B23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23">
+        <v>68719476736</v>
+      </c>
+      <c r="D23" t="s">
+        <v>195</v>
+      </c>
+      <c r="E23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>8</v>
+      </c>
+      <c r="H23">
+        <v>30</v>
+      </c>
+      <c r="I23">
+        <v>120</v>
+      </c>
+      <c r="J23">
+        <v>12327059456</v>
+      </c>
+      <c r="K23">
+        <v>23512</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>224</v>
+      </c>
+      <c r="B24" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24">
+        <v>68719476736</v>
+      </c>
+      <c r="D24" t="s">
+        <v>195</v>
+      </c>
+      <c r="E24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>8</v>
+      </c>
+      <c r="H24">
+        <v>30</v>
+      </c>
+      <c r="I24">
+        <v>120</v>
+      </c>
+      <c r="J24">
+        <v>102760448</v>
+      </c>
+      <c r="K24">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>225</v>
+      </c>
+      <c r="B25" t="s">
+        <v>202</v>
+      </c>
+      <c r="C25">
+        <v>68719476736</v>
+      </c>
+      <c r="D25" t="s">
+        <v>195</v>
+      </c>
+      <c r="E25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>8</v>
+      </c>
+      <c r="H25">
+        <v>30</v>
+      </c>
+      <c r="I25">
+        <v>120</v>
+      </c>
+      <c r="J25">
+        <v>50855936</v>
+      </c>
+      <c r="K25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>226</v>
+      </c>
+      <c r="B26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C26">
+        <v>68719476736</v>
+      </c>
+      <c r="D26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>8</v>
+      </c>
+      <c r="H26">
+        <v>30</v>
+      </c>
+      <c r="I26">
+        <v>120</v>
+      </c>
+      <c r="J26">
+        <v>13828620288</v>
+      </c>
+      <c r="K26">
+        <v>13188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>227</v>
+      </c>
+      <c r="B27" t="s">
+        <v>202</v>
+      </c>
+      <c r="C27">
+        <v>68719476736</v>
+      </c>
+      <c r="D27" t="s">
+        <v>196</v>
+      </c>
+      <c r="E27" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>8</v>
+      </c>
+      <c r="H27">
+        <v>30</v>
+      </c>
+      <c r="I27">
+        <v>120</v>
+      </c>
+      <c r="J27">
+        <v>100663296</v>
+      </c>
+      <c r="K27">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>228</v>
+      </c>
+      <c r="B28" t="s">
+        <v>202</v>
+      </c>
+      <c r="C28">
+        <v>68719476736</v>
+      </c>
+      <c r="D28" t="s">
+        <v>196</v>
+      </c>
+      <c r="E28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>8</v>
+      </c>
+      <c r="H28">
+        <v>30</v>
+      </c>
+      <c r="I28">
+        <v>120</v>
+      </c>
+      <c r="J28">
+        <v>49283072</v>
+      </c>
+      <c r="K28">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>229</v>
+      </c>
+      <c r="B29" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29">
+        <v>68719476736</v>
+      </c>
+      <c r="D29" t="s">
+        <v>197</v>
+      </c>
+      <c r="E29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>8</v>
+      </c>
+      <c r="H29">
+        <v>30</v>
+      </c>
+      <c r="I29">
+        <v>120</v>
+      </c>
+      <c r="J29">
+        <v>13832814592</v>
+      </c>
+      <c r="K29">
+        <v>6596</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C30">
+        <v>68719476736</v>
+      </c>
+      <c r="D30" t="s">
+        <v>197</v>
+      </c>
+      <c r="E30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>8</v>
+      </c>
+      <c r="H30">
+        <v>30</v>
+      </c>
+      <c r="I30">
+        <v>120</v>
+      </c>
+      <c r="J30">
+        <v>121634816</v>
+      </c>
+      <c r="K30">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>231</v>
+      </c>
+      <c r="B31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C31">
+        <v>68719476736</v>
+      </c>
+      <c r="D31" t="s">
+        <v>197</v>
+      </c>
+      <c r="E31" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>8</v>
+      </c>
+      <c r="H31">
+        <v>30</v>
+      </c>
+      <c r="I31">
+        <v>120</v>
+      </c>
+      <c r="J31">
+        <v>48234496</v>
+      </c>
+      <c r="K31">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF5C144-66D8-4643-9C92-94673AEB2F32}">
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2">
+        <v>68719476736</v>
+      </c>
+      <c r="D2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <v>30</v>
+      </c>
+      <c r="I2">
+        <v>120</v>
+      </c>
+      <c r="J2">
+        <v>7494873088</v>
+      </c>
+      <c r="K2">
+        <v>1829803</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3">
+        <v>68719476736</v>
+      </c>
+      <c r="D3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>30</v>
+      </c>
+      <c r="I3">
+        <v>120</v>
+      </c>
+      <c r="J3">
+        <v>1378578432</v>
+      </c>
+      <c r="K3">
+        <v>336567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4">
+        <v>68719476736</v>
+      </c>
+      <c r="D4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4">
+        <v>120</v>
+      </c>
+      <c r="J4">
+        <v>862478336</v>
+      </c>
+      <c r="K4">
+        <v>210566</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5">
+        <v>68719476736</v>
+      </c>
+      <c r="D5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <v>120</v>
+      </c>
+      <c r="J5">
+        <v>12359843840</v>
+      </c>
+      <c r="K5">
+        <v>1508770</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6">
+        <v>68719476736</v>
+      </c>
+      <c r="D6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6">
+        <v>120</v>
+      </c>
+      <c r="J6">
+        <v>2704269312</v>
+      </c>
+      <c r="K6">
+        <v>330111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7">
+        <v>68719476736</v>
+      </c>
+      <c r="D7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7">
+        <v>120</v>
+      </c>
+      <c r="J7">
+        <v>1596694528</v>
+      </c>
+      <c r="K7">
+        <v>194909</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8">
+        <v>68719476736</v>
+      </c>
+      <c r="D8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>30</v>
+      </c>
+      <c r="I8">
+        <v>120</v>
+      </c>
+      <c r="J8">
+        <v>14076559360</v>
+      </c>
+      <c r="K8">
+        <v>859165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C9">
+        <v>68719476736</v>
+      </c>
+      <c r="D9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>30</v>
+      </c>
+      <c r="I9">
+        <v>120</v>
+      </c>
+      <c r="J9">
+        <v>5289934848</v>
+      </c>
+      <c r="K9">
+        <v>322872</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10">
+        <v>68719476736</v>
+      </c>
+      <c r="D10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>30</v>
+      </c>
+      <c r="I10">
+        <v>120</v>
+      </c>
+      <c r="J10">
+        <v>3151265792</v>
+      </c>
+      <c r="K10">
+        <v>192338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>251</v>
+      </c>
+      <c r="B11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C11">
+        <v>68719476736</v>
+      </c>
+      <c r="D11" t="s">
+        <v>191</v>
+      </c>
+      <c r="E11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>30</v>
+      </c>
+      <c r="I11">
+        <v>120</v>
+      </c>
+      <c r="J11">
+        <v>14180220928</v>
+      </c>
+      <c r="K11">
+        <v>432746</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>252</v>
+      </c>
+      <c r="B12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C12">
+        <v>68719476736</v>
+      </c>
+      <c r="D12" t="s">
+        <v>191</v>
+      </c>
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>30</v>
+      </c>
+      <c r="I12">
+        <v>120</v>
+      </c>
+      <c r="J12">
+        <v>9672294400</v>
+      </c>
+      <c r="K12">
+        <v>295175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>253</v>
+      </c>
+      <c r="B13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13">
+        <v>68719476736</v>
+      </c>
+      <c r="D13" t="s">
+        <v>191</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13">
+        <v>30</v>
+      </c>
+      <c r="I13">
+        <v>120</v>
+      </c>
+      <c r="J13">
+        <v>5735907328</v>
+      </c>
+      <c r="K13">
+        <v>175046</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C14">
+        <v>68719476736</v>
+      </c>
+      <c r="D14" t="s">
+        <v>192</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="H14">
+        <v>30</v>
+      </c>
+      <c r="I14">
+        <v>120</v>
+      </c>
+      <c r="J14">
+        <v>14215741440</v>
+      </c>
+      <c r="K14">
+        <v>216915</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>255</v>
+      </c>
+      <c r="B15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C15">
+        <v>68719476736</v>
+      </c>
+      <c r="D15" t="s">
+        <v>192</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
+      <c r="H15">
+        <v>30</v>
+      </c>
+      <c r="I15">
+        <v>120</v>
+      </c>
+      <c r="J15">
+        <v>15812919296</v>
+      </c>
+      <c r="K15">
+        <v>241286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>256</v>
+      </c>
+      <c r="B16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C16">
+        <v>68719476736</v>
+      </c>
+      <c r="D16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+      <c r="H16">
+        <v>30</v>
+      </c>
+      <c r="I16">
+        <v>120</v>
+      </c>
+      <c r="J16">
+        <v>10777198592</v>
+      </c>
+      <c r="K16">
+        <v>164447</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>257</v>
+      </c>
+      <c r="B17" t="s">
+        <v>242</v>
+      </c>
+      <c r="C17">
+        <v>68719476736</v>
+      </c>
+      <c r="D17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
+      <c r="H17">
+        <v>30</v>
+      </c>
+      <c r="I17">
+        <v>120</v>
+      </c>
+      <c r="J17">
+        <v>14226948096</v>
+      </c>
+      <c r="K17">
+        <v>108543</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>258</v>
+      </c>
+      <c r="B18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C18">
+        <v>68719476736</v>
+      </c>
+      <c r="D18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>8</v>
+      </c>
+      <c r="H18">
+        <v>30</v>
+      </c>
+      <c r="I18">
+        <v>120</v>
+      </c>
+      <c r="J18">
+        <v>21529755648</v>
+      </c>
+      <c r="K18">
+        <v>164259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>259</v>
+      </c>
+      <c r="B19" t="s">
+        <v>242</v>
+      </c>
+      <c r="C19">
+        <v>68719476736</v>
+      </c>
+      <c r="D19" t="s">
+        <v>193</v>
+      </c>
+      <c r="E19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>8</v>
+      </c>
+      <c r="H19">
+        <v>30</v>
+      </c>
+      <c r="I19">
+        <v>120</v>
+      </c>
+      <c r="J19">
+        <v>14089191424</v>
+      </c>
+      <c r="K19">
+        <v>107492</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>260</v>
+      </c>
+      <c r="B20" t="s">
+        <v>242</v>
+      </c>
+      <c r="C20">
+        <v>68719476736</v>
+      </c>
+      <c r="D20" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>8</v>
+      </c>
+      <c r="H20">
+        <v>30</v>
+      </c>
+      <c r="I20">
+        <v>120</v>
+      </c>
+      <c r="J20">
+        <v>14228652032</v>
+      </c>
+      <c r="K20">
+        <v>54278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>261</v>
+      </c>
+      <c r="B21" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21">
+        <v>68719476736</v>
+      </c>
+      <c r="D21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>8</v>
+      </c>
+      <c r="H21">
+        <v>30</v>
+      </c>
+      <c r="I21">
+        <v>120</v>
+      </c>
+      <c r="J21">
+        <v>24450957312</v>
+      </c>
+      <c r="K21">
+        <v>93273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>262</v>
+      </c>
+      <c r="B22" t="s">
+        <v>242</v>
+      </c>
+      <c r="C22">
+        <v>68719476736</v>
+      </c>
+      <c r="D22" t="s">
+        <v>194</v>
+      </c>
+      <c r="E22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <v>30</v>
+      </c>
+      <c r="I22">
+        <v>120</v>
+      </c>
+      <c r="J22">
+        <v>14123532288</v>
+      </c>
+      <c r="K22">
+        <v>53877</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>263</v>
+      </c>
+      <c r="B23" t="s">
+        <v>242</v>
+      </c>
+      <c r="C23">
+        <v>68719476736</v>
+      </c>
+      <c r="D23" t="s">
+        <v>195</v>
+      </c>
+      <c r="E23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>8</v>
+      </c>
+      <c r="H23">
+        <v>30</v>
+      </c>
+      <c r="I23">
+        <v>120</v>
+      </c>
+      <c r="J23">
+        <v>14218690560</v>
+      </c>
+      <c r="K23">
+        <v>27120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>264</v>
+      </c>
+      <c r="B24" t="s">
+        <v>242</v>
+      </c>
+      <c r="C24">
+        <v>68719476736</v>
+      </c>
+      <c r="D24" t="s">
+        <v>195</v>
+      </c>
+      <c r="E24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>8</v>
+      </c>
+      <c r="H24">
+        <v>30</v>
+      </c>
+      <c r="I24">
+        <v>120</v>
+      </c>
+      <c r="J24">
+        <v>25095045120</v>
+      </c>
+      <c r="K24">
+        <v>47865</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>265</v>
+      </c>
+      <c r="B25" t="s">
+        <v>242</v>
+      </c>
+      <c r="C25">
+        <v>68719476736</v>
+      </c>
+      <c r="D25" t="s">
+        <v>195</v>
+      </c>
+      <c r="E25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>8</v>
+      </c>
+      <c r="H25">
+        <v>30</v>
+      </c>
+      <c r="I25">
+        <v>120</v>
+      </c>
+      <c r="J25">
+        <v>14128513024</v>
+      </c>
+      <c r="K25">
+        <v>26948</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>266</v>
+      </c>
+      <c r="B26" t="s">
+        <v>242</v>
+      </c>
+      <c r="C26">
+        <v>68719476736</v>
+      </c>
+      <c r="D26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>8</v>
+      </c>
+      <c r="H26">
+        <v>30</v>
+      </c>
+      <c r="I26">
+        <v>120</v>
+      </c>
+      <c r="J26">
+        <v>14233370624</v>
+      </c>
+      <c r="K26">
+        <v>13574</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>267</v>
+      </c>
+      <c r="B27" t="s">
+        <v>242</v>
+      </c>
+      <c r="C27">
+        <v>68719476736</v>
+      </c>
+      <c r="D27" t="s">
+        <v>196</v>
+      </c>
+      <c r="E27" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>8</v>
+      </c>
+      <c r="H27">
+        <v>30</v>
+      </c>
+      <c r="I27">
+        <v>120</v>
+      </c>
+      <c r="J27">
+        <v>25186795520</v>
+      </c>
+      <c r="K27">
+        <v>24020</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>268</v>
+      </c>
+      <c r="B28" t="s">
+        <v>242</v>
+      </c>
+      <c r="C28">
+        <v>68719476736</v>
+      </c>
+      <c r="D28" t="s">
+        <v>196</v>
+      </c>
+      <c r="E28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>8</v>
+      </c>
+      <c r="H28">
+        <v>30</v>
+      </c>
+      <c r="I28">
+        <v>120</v>
+      </c>
+      <c r="J28">
+        <v>14130610176</v>
+      </c>
+      <c r="K28">
+        <v>13476</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>269</v>
+      </c>
+      <c r="B29" t="s">
+        <v>242</v>
+      </c>
+      <c r="C29">
+        <v>68719476736</v>
+      </c>
+      <c r="D29" t="s">
+        <v>197</v>
+      </c>
+      <c r="E29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>8</v>
+      </c>
+      <c r="H29">
+        <v>30</v>
+      </c>
+      <c r="I29">
+        <v>120</v>
+      </c>
+      <c r="J29">
+        <v>14235467776</v>
+      </c>
+      <c r="K29">
+        <v>6788</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>270</v>
+      </c>
+      <c r="B30" t="s">
+        <v>242</v>
+      </c>
+      <c r="C30">
+        <v>68719476736</v>
+      </c>
+      <c r="D30" t="s">
+        <v>197</v>
+      </c>
+      <c r="E30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>8</v>
+      </c>
+      <c r="H30">
+        <v>30</v>
+      </c>
+      <c r="I30">
+        <v>120</v>
+      </c>
+      <c r="J30">
+        <v>23746052096</v>
+      </c>
+      <c r="K30">
+        <v>11323</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>271</v>
+      </c>
+      <c r="B31" t="s">
+        <v>242</v>
+      </c>
+      <c r="C31">
+        <v>68719476736</v>
+      </c>
+      <c r="D31" t="s">
+        <v>197</v>
+      </c>
+      <c r="E31" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>8</v>
+      </c>
+      <c r="H31">
+        <v>30</v>
+      </c>
+      <c r="I31">
+        <v>120</v>
+      </c>
+      <c r="J31">
+        <v>14128513024</v>
+      </c>
+      <c r="K31">
+        <v>6737</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L181"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N152" sqref="N152"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -18678,7 +21458,7 @@
         <v>229688</v>
       </c>
       <c r="L131" s="3">
-        <f t="shared" ref="L131:L151" si="2">J131/I131/1024/1024</f>
+        <f t="shared" ref="L131:L181" si="2">J131/I131/1024/1024</f>
         <v>59.814583333333331</v>
       </c>
     </row>
@@ -19460,6 +22240,1176 @@
       <c r="L151" s="3">
         <f t="shared" si="2"/>
         <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>241</v>
+      </c>
+      <c r="B152" t="s">
+        <v>272</v>
+      </c>
+      <c r="C152">
+        <v>68719476736</v>
+      </c>
+      <c r="D152" t="s">
+        <v>188</v>
+      </c>
+      <c r="E152" t="s">
+        <v>75</v>
+      </c>
+      <c r="F152">
+        <v>2</v>
+      </c>
+      <c r="G152">
+        <v>8</v>
+      </c>
+      <c r="H152">
+        <v>30</v>
+      </c>
+      <c r="I152">
+        <v>120</v>
+      </c>
+      <c r="J152">
+        <v>7494873088</v>
+      </c>
+      <c r="K152">
+        <v>1829803</v>
+      </c>
+      <c r="L152" s="3">
+        <f t="shared" si="2"/>
+        <v>59.563899739583334</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>243</v>
+      </c>
+      <c r="B153" t="s">
+        <v>272</v>
+      </c>
+      <c r="C153">
+        <v>68719476736</v>
+      </c>
+      <c r="D153" t="s">
+        <v>188</v>
+      </c>
+      <c r="E153" t="s">
+        <v>76</v>
+      </c>
+      <c r="F153">
+        <v>2</v>
+      </c>
+      <c r="G153">
+        <v>8</v>
+      </c>
+      <c r="H153">
+        <v>30</v>
+      </c>
+      <c r="I153">
+        <v>120</v>
+      </c>
+      <c r="J153">
+        <v>1378578432</v>
+      </c>
+      <c r="K153">
+        <v>336567</v>
+      </c>
+      <c r="L153" s="3">
+        <f t="shared" si="2"/>
+        <v>10.95595703125</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>244</v>
+      </c>
+      <c r="B154" t="s">
+        <v>272</v>
+      </c>
+      <c r="C154">
+        <v>68719476736</v>
+      </c>
+      <c r="D154" t="s">
+        <v>188</v>
+      </c>
+      <c r="E154" t="s">
+        <v>77</v>
+      </c>
+      <c r="F154">
+        <v>2</v>
+      </c>
+      <c r="G154">
+        <v>8</v>
+      </c>
+      <c r="H154">
+        <v>30</v>
+      </c>
+      <c r="I154">
+        <v>120</v>
+      </c>
+      <c r="J154">
+        <v>862478336</v>
+      </c>
+      <c r="K154">
+        <v>210566</v>
+      </c>
+      <c r="L154" s="3">
+        <f t="shared" si="2"/>
+        <v>6.8543619791666668</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>245</v>
+      </c>
+      <c r="B155" t="s">
+        <v>272</v>
+      </c>
+      <c r="C155">
+        <v>68719476736</v>
+      </c>
+      <c r="D155" t="s">
+        <v>189</v>
+      </c>
+      <c r="E155" t="s">
+        <v>75</v>
+      </c>
+      <c r="F155">
+        <v>2</v>
+      </c>
+      <c r="G155">
+        <v>8</v>
+      </c>
+      <c r="H155">
+        <v>30</v>
+      </c>
+      <c r="I155">
+        <v>120</v>
+      </c>
+      <c r="J155">
+        <v>12359843840</v>
+      </c>
+      <c r="K155">
+        <v>1508770</v>
+      </c>
+      <c r="L155" s="3">
+        <f t="shared" si="2"/>
+        <v>98.227213541666671</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>246</v>
+      </c>
+      <c r="B156" t="s">
+        <v>272</v>
+      </c>
+      <c r="C156">
+        <v>68719476736</v>
+      </c>
+      <c r="D156" t="s">
+        <v>189</v>
+      </c>
+      <c r="E156" t="s">
+        <v>76</v>
+      </c>
+      <c r="F156">
+        <v>2</v>
+      </c>
+      <c r="G156">
+        <v>8</v>
+      </c>
+      <c r="H156">
+        <v>30</v>
+      </c>
+      <c r="I156">
+        <v>120</v>
+      </c>
+      <c r="J156">
+        <v>2704269312</v>
+      </c>
+      <c r="K156">
+        <v>330111</v>
+      </c>
+      <c r="L156" s="3">
+        <f t="shared" si="2"/>
+        <v>21.491601562500001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>247</v>
+      </c>
+      <c r="B157" t="s">
+        <v>272</v>
+      </c>
+      <c r="C157">
+        <v>68719476736</v>
+      </c>
+      <c r="D157" t="s">
+        <v>189</v>
+      </c>
+      <c r="E157" t="s">
+        <v>77</v>
+      </c>
+      <c r="F157">
+        <v>2</v>
+      </c>
+      <c r="G157">
+        <v>8</v>
+      </c>
+      <c r="H157">
+        <v>30</v>
+      </c>
+      <c r="I157">
+        <v>120</v>
+      </c>
+      <c r="J157">
+        <v>1596694528</v>
+      </c>
+      <c r="K157">
+        <v>194909</v>
+      </c>
+      <c r="L157" s="3">
+        <f t="shared" si="2"/>
+        <v>12.689388020833333</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>248</v>
+      </c>
+      <c r="B158" t="s">
+        <v>272</v>
+      </c>
+      <c r="C158">
+        <v>68719476736</v>
+      </c>
+      <c r="D158" t="s">
+        <v>190</v>
+      </c>
+      <c r="E158" t="s">
+        <v>75</v>
+      </c>
+      <c r="F158">
+        <v>2</v>
+      </c>
+      <c r="G158">
+        <v>8</v>
+      </c>
+      <c r="H158">
+        <v>30</v>
+      </c>
+      <c r="I158">
+        <v>120</v>
+      </c>
+      <c r="J158">
+        <v>14076559360</v>
+      </c>
+      <c r="K158">
+        <v>859165</v>
+      </c>
+      <c r="L158" s="3">
+        <f t="shared" si="2"/>
+        <v>111.87044270833333</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>249</v>
+      </c>
+      <c r="B159" t="s">
+        <v>272</v>
+      </c>
+      <c r="C159">
+        <v>68719476736</v>
+      </c>
+      <c r="D159" t="s">
+        <v>190</v>
+      </c>
+      <c r="E159" t="s">
+        <v>76</v>
+      </c>
+      <c r="F159">
+        <v>2</v>
+      </c>
+      <c r="G159">
+        <v>8</v>
+      </c>
+      <c r="H159">
+        <v>30</v>
+      </c>
+      <c r="I159">
+        <v>120</v>
+      </c>
+      <c r="J159">
+        <v>5289934848</v>
+      </c>
+      <c r="K159">
+        <v>322872</v>
+      </c>
+      <c r="L159" s="3">
+        <f t="shared" si="2"/>
+        <v>42.040624999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>250</v>
+      </c>
+      <c r="B160" t="s">
+        <v>272</v>
+      </c>
+      <c r="C160">
+        <v>68719476736</v>
+      </c>
+      <c r="D160" t="s">
+        <v>190</v>
+      </c>
+      <c r="E160" t="s">
+        <v>77</v>
+      </c>
+      <c r="F160">
+        <v>2</v>
+      </c>
+      <c r="G160">
+        <v>8</v>
+      </c>
+      <c r="H160">
+        <v>30</v>
+      </c>
+      <c r="I160">
+        <v>120</v>
+      </c>
+      <c r="J160">
+        <v>3151265792</v>
+      </c>
+      <c r="K160">
+        <v>192338</v>
+      </c>
+      <c r="L160" s="3">
+        <f t="shared" si="2"/>
+        <v>25.044010416666666</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>251</v>
+      </c>
+      <c r="B161" t="s">
+        <v>272</v>
+      </c>
+      <c r="C161">
+        <v>68719476736</v>
+      </c>
+      <c r="D161" t="s">
+        <v>191</v>
+      </c>
+      <c r="E161" t="s">
+        <v>75</v>
+      </c>
+      <c r="F161">
+        <v>2</v>
+      </c>
+      <c r="G161">
+        <v>8</v>
+      </c>
+      <c r="H161">
+        <v>30</v>
+      </c>
+      <c r="I161">
+        <v>120</v>
+      </c>
+      <c r="J161">
+        <v>14180220928</v>
+      </c>
+      <c r="K161">
+        <v>432746</v>
+      </c>
+      <c r="L161" s="3">
+        <f t="shared" si="2"/>
+        <v>112.69427083333333</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>252</v>
+      </c>
+      <c r="B162" t="s">
+        <v>272</v>
+      </c>
+      <c r="C162">
+        <v>68719476736</v>
+      </c>
+      <c r="D162" t="s">
+        <v>191</v>
+      </c>
+      <c r="E162" t="s">
+        <v>76</v>
+      </c>
+      <c r="F162">
+        <v>2</v>
+      </c>
+      <c r="G162">
+        <v>8</v>
+      </c>
+      <c r="H162">
+        <v>30</v>
+      </c>
+      <c r="I162">
+        <v>120</v>
+      </c>
+      <c r="J162">
+        <v>9672294400</v>
+      </c>
+      <c r="K162">
+        <v>295175</v>
+      </c>
+      <c r="L162" s="3">
+        <f t="shared" si="2"/>
+        <v>76.868489583333329</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>253</v>
+      </c>
+      <c r="B163" t="s">
+        <v>272</v>
+      </c>
+      <c r="C163">
+        <v>68719476736</v>
+      </c>
+      <c r="D163" t="s">
+        <v>191</v>
+      </c>
+      <c r="E163" t="s">
+        <v>77</v>
+      </c>
+      <c r="F163">
+        <v>2</v>
+      </c>
+      <c r="G163">
+        <v>8</v>
+      </c>
+      <c r="H163">
+        <v>30</v>
+      </c>
+      <c r="I163">
+        <v>120</v>
+      </c>
+      <c r="J163">
+        <v>5735907328</v>
+      </c>
+      <c r="K163">
+        <v>175046</v>
+      </c>
+      <c r="L163" s="3">
+        <f t="shared" si="2"/>
+        <v>45.584895833333334</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>254</v>
+      </c>
+      <c r="B164" t="s">
+        <v>272</v>
+      </c>
+      <c r="C164">
+        <v>68719476736</v>
+      </c>
+      <c r="D164" t="s">
+        <v>192</v>
+      </c>
+      <c r="E164" t="s">
+        <v>75</v>
+      </c>
+      <c r="F164">
+        <v>2</v>
+      </c>
+      <c r="G164">
+        <v>8</v>
+      </c>
+      <c r="H164">
+        <v>30</v>
+      </c>
+      <c r="I164">
+        <v>120</v>
+      </c>
+      <c r="J164">
+        <v>14215741440</v>
+      </c>
+      <c r="K164">
+        <v>216915</v>
+      </c>
+      <c r="L164" s="3">
+        <f t="shared" si="2"/>
+        <v>112.9765625</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>255</v>
+      </c>
+      <c r="B165" t="s">
+        <v>272</v>
+      </c>
+      <c r="C165">
+        <v>68719476736</v>
+      </c>
+      <c r="D165" t="s">
+        <v>192</v>
+      </c>
+      <c r="E165" t="s">
+        <v>76</v>
+      </c>
+      <c r="F165">
+        <v>2</v>
+      </c>
+      <c r="G165">
+        <v>8</v>
+      </c>
+      <c r="H165">
+        <v>30</v>
+      </c>
+      <c r="I165">
+        <v>120</v>
+      </c>
+      <c r="J165">
+        <v>15812919296</v>
+      </c>
+      <c r="K165">
+        <v>241286</v>
+      </c>
+      <c r="L165" s="3">
+        <f t="shared" si="2"/>
+        <v>125.66979166666667</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>256</v>
+      </c>
+      <c r="B166" t="s">
+        <v>272</v>
+      </c>
+      <c r="C166">
+        <v>68719476736</v>
+      </c>
+      <c r="D166" t="s">
+        <v>192</v>
+      </c>
+      <c r="E166" t="s">
+        <v>77</v>
+      </c>
+      <c r="F166">
+        <v>2</v>
+      </c>
+      <c r="G166">
+        <v>8</v>
+      </c>
+      <c r="H166">
+        <v>30</v>
+      </c>
+      <c r="I166">
+        <v>120</v>
+      </c>
+      <c r="J166">
+        <v>10777198592</v>
+      </c>
+      <c r="K166">
+        <v>164447</v>
+      </c>
+      <c r="L166" s="3">
+        <f t="shared" si="2"/>
+        <v>85.649479166666666</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>257</v>
+      </c>
+      <c r="B167" t="s">
+        <v>272</v>
+      </c>
+      <c r="C167">
+        <v>68719476736</v>
+      </c>
+      <c r="D167" t="s">
+        <v>193</v>
+      </c>
+      <c r="E167" t="s">
+        <v>75</v>
+      </c>
+      <c r="F167">
+        <v>2</v>
+      </c>
+      <c r="G167">
+        <v>8</v>
+      </c>
+      <c r="H167">
+        <v>30</v>
+      </c>
+      <c r="I167">
+        <v>120</v>
+      </c>
+      <c r="J167">
+        <v>14226948096</v>
+      </c>
+      <c r="K167">
+        <v>108543</v>
+      </c>
+      <c r="L167" s="3">
+        <f t="shared" si="2"/>
+        <v>113.065625</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>258</v>
+      </c>
+      <c r="B168" t="s">
+        <v>272</v>
+      </c>
+      <c r="C168">
+        <v>68719476736</v>
+      </c>
+      <c r="D168" t="s">
+        <v>193</v>
+      </c>
+      <c r="E168" t="s">
+        <v>76</v>
+      </c>
+      <c r="F168">
+        <v>2</v>
+      </c>
+      <c r="G168">
+        <v>8</v>
+      </c>
+      <c r="H168">
+        <v>30</v>
+      </c>
+      <c r="I168">
+        <v>120</v>
+      </c>
+      <c r="J168">
+        <v>21529755648</v>
+      </c>
+      <c r="K168">
+        <v>164259</v>
+      </c>
+      <c r="L168" s="3">
+        <f t="shared" si="2"/>
+        <v>171.10312500000001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>259</v>
+      </c>
+      <c r="B169" t="s">
+        <v>272</v>
+      </c>
+      <c r="C169">
+        <v>68719476736</v>
+      </c>
+      <c r="D169" t="s">
+        <v>193</v>
+      </c>
+      <c r="E169" t="s">
+        <v>77</v>
+      </c>
+      <c r="F169">
+        <v>2</v>
+      </c>
+      <c r="G169">
+        <v>8</v>
+      </c>
+      <c r="H169">
+        <v>30</v>
+      </c>
+      <c r="I169">
+        <v>120</v>
+      </c>
+      <c r="J169">
+        <v>14089191424</v>
+      </c>
+      <c r="K169">
+        <v>107492</v>
+      </c>
+      <c r="L169" s="3">
+        <f t="shared" si="2"/>
+        <v>111.97083333333333</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>260</v>
+      </c>
+      <c r="B170" t="s">
+        <v>272</v>
+      </c>
+      <c r="C170">
+        <v>68719476736</v>
+      </c>
+      <c r="D170" t="s">
+        <v>194</v>
+      </c>
+      <c r="E170" t="s">
+        <v>75</v>
+      </c>
+      <c r="F170">
+        <v>2</v>
+      </c>
+      <c r="G170">
+        <v>8</v>
+      </c>
+      <c r="H170">
+        <v>30</v>
+      </c>
+      <c r="I170">
+        <v>120</v>
+      </c>
+      <c r="J170">
+        <v>14228652032</v>
+      </c>
+      <c r="K170">
+        <v>54278</v>
+      </c>
+      <c r="L170" s="3">
+        <f t="shared" si="2"/>
+        <v>113.07916666666667</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>261</v>
+      </c>
+      <c r="B171" t="s">
+        <v>272</v>
+      </c>
+      <c r="C171">
+        <v>68719476736</v>
+      </c>
+      <c r="D171" t="s">
+        <v>194</v>
+      </c>
+      <c r="E171" t="s">
+        <v>76</v>
+      </c>
+      <c r="F171">
+        <v>2</v>
+      </c>
+      <c r="G171">
+        <v>8</v>
+      </c>
+      <c r="H171">
+        <v>30</v>
+      </c>
+      <c r="I171">
+        <v>120</v>
+      </c>
+      <c r="J171">
+        <v>24450957312</v>
+      </c>
+      <c r="K171">
+        <v>93273</v>
+      </c>
+      <c r="L171" s="3">
+        <f t="shared" si="2"/>
+        <v>194.31874999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>262</v>
+      </c>
+      <c r="B172" t="s">
+        <v>272</v>
+      </c>
+      <c r="C172">
+        <v>68719476736</v>
+      </c>
+      <c r="D172" t="s">
+        <v>194</v>
+      </c>
+      <c r="E172" t="s">
+        <v>77</v>
+      </c>
+      <c r="F172">
+        <v>2</v>
+      </c>
+      <c r="G172">
+        <v>8</v>
+      </c>
+      <c r="H172">
+        <v>30</v>
+      </c>
+      <c r="I172">
+        <v>120</v>
+      </c>
+      <c r="J172">
+        <v>14123532288</v>
+      </c>
+      <c r="K172">
+        <v>53877</v>
+      </c>
+      <c r="L172" s="3">
+        <f t="shared" si="2"/>
+        <v>112.24375000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>263</v>
+      </c>
+      <c r="B173" t="s">
+        <v>272</v>
+      </c>
+      <c r="C173">
+        <v>68719476736</v>
+      </c>
+      <c r="D173" t="s">
+        <v>195</v>
+      </c>
+      <c r="E173" t="s">
+        <v>75</v>
+      </c>
+      <c r="F173">
+        <v>2</v>
+      </c>
+      <c r="G173">
+        <v>8</v>
+      </c>
+      <c r="H173">
+        <v>30</v>
+      </c>
+      <c r="I173">
+        <v>120</v>
+      </c>
+      <c r="J173">
+        <v>14218690560</v>
+      </c>
+      <c r="K173">
+        <v>27120</v>
+      </c>
+      <c r="L173" s="3">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>264</v>
+      </c>
+      <c r="B174" t="s">
+        <v>272</v>
+      </c>
+      <c r="C174">
+        <v>68719476736</v>
+      </c>
+      <c r="D174" t="s">
+        <v>195</v>
+      </c>
+      <c r="E174" t="s">
+        <v>76</v>
+      </c>
+      <c r="F174">
+        <v>2</v>
+      </c>
+      <c r="G174">
+        <v>8</v>
+      </c>
+      <c r="H174">
+        <v>30</v>
+      </c>
+      <c r="I174">
+        <v>120</v>
+      </c>
+      <c r="J174">
+        <v>25095045120</v>
+      </c>
+      <c r="K174">
+        <v>47865</v>
+      </c>
+      <c r="L174" s="3">
+        <f t="shared" si="2"/>
+        <v>199.4375</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>265</v>
+      </c>
+      <c r="B175" t="s">
+        <v>272</v>
+      </c>
+      <c r="C175">
+        <v>68719476736</v>
+      </c>
+      <c r="D175" t="s">
+        <v>195</v>
+      </c>
+      <c r="E175" t="s">
+        <v>77</v>
+      </c>
+      <c r="F175">
+        <v>2</v>
+      </c>
+      <c r="G175">
+        <v>8</v>
+      </c>
+      <c r="H175">
+        <v>30</v>
+      </c>
+      <c r="I175">
+        <v>120</v>
+      </c>
+      <c r="J175">
+        <v>14128513024</v>
+      </c>
+      <c r="K175">
+        <v>26948</v>
+      </c>
+      <c r="L175" s="3">
+        <f t="shared" si="2"/>
+        <v>112.28333333333333</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>266</v>
+      </c>
+      <c r="B176" t="s">
+        <v>272</v>
+      </c>
+      <c r="C176">
+        <v>68719476736</v>
+      </c>
+      <c r="D176" t="s">
+        <v>196</v>
+      </c>
+      <c r="E176" t="s">
+        <v>75</v>
+      </c>
+      <c r="F176">
+        <v>2</v>
+      </c>
+      <c r="G176">
+        <v>8</v>
+      </c>
+      <c r="H176">
+        <v>30</v>
+      </c>
+      <c r="I176">
+        <v>120</v>
+      </c>
+      <c r="J176">
+        <v>14233370624</v>
+      </c>
+      <c r="K176">
+        <v>13574</v>
+      </c>
+      <c r="L176" s="3">
+        <f t="shared" si="2"/>
+        <v>113.11666666666666</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>267</v>
+      </c>
+      <c r="B177" t="s">
+        <v>272</v>
+      </c>
+      <c r="C177">
+        <v>68719476736</v>
+      </c>
+      <c r="D177" t="s">
+        <v>196</v>
+      </c>
+      <c r="E177" t="s">
+        <v>76</v>
+      </c>
+      <c r="F177">
+        <v>2</v>
+      </c>
+      <c r="G177">
+        <v>8</v>
+      </c>
+      <c r="H177">
+        <v>30</v>
+      </c>
+      <c r="I177">
+        <v>120</v>
+      </c>
+      <c r="J177">
+        <v>25186795520</v>
+      </c>
+      <c r="K177">
+        <v>24020</v>
+      </c>
+      <c r="L177" s="3">
+        <f t="shared" si="2"/>
+        <v>200.16666666666666</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>268</v>
+      </c>
+      <c r="B178" t="s">
+        <v>272</v>
+      </c>
+      <c r="C178">
+        <v>68719476736</v>
+      </c>
+      <c r="D178" t="s">
+        <v>196</v>
+      </c>
+      <c r="E178" t="s">
+        <v>77</v>
+      </c>
+      <c r="F178">
+        <v>2</v>
+      </c>
+      <c r="G178">
+        <v>8</v>
+      </c>
+      <c r="H178">
+        <v>30</v>
+      </c>
+      <c r="I178">
+        <v>120</v>
+      </c>
+      <c r="J178">
+        <v>14130610176</v>
+      </c>
+      <c r="K178">
+        <v>13476</v>
+      </c>
+      <c r="L178" s="3">
+        <f t="shared" si="2"/>
+        <v>112.3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>269</v>
+      </c>
+      <c r="B179" t="s">
+        <v>272</v>
+      </c>
+      <c r="C179">
+        <v>68719476736</v>
+      </c>
+      <c r="D179" t="s">
+        <v>197</v>
+      </c>
+      <c r="E179" t="s">
+        <v>75</v>
+      </c>
+      <c r="F179">
+        <v>2</v>
+      </c>
+      <c r="G179">
+        <v>8</v>
+      </c>
+      <c r="H179">
+        <v>30</v>
+      </c>
+      <c r="I179">
+        <v>120</v>
+      </c>
+      <c r="J179">
+        <v>14235467776</v>
+      </c>
+      <c r="K179">
+        <v>6788</v>
+      </c>
+      <c r="L179" s="3">
+        <f t="shared" si="2"/>
+        <v>113.13333333333334</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>270</v>
+      </c>
+      <c r="B180" t="s">
+        <v>272</v>
+      </c>
+      <c r="C180">
+        <v>68719476736</v>
+      </c>
+      <c r="D180" t="s">
+        <v>197</v>
+      </c>
+      <c r="E180" t="s">
+        <v>76</v>
+      </c>
+      <c r="F180">
+        <v>2</v>
+      </c>
+      <c r="G180">
+        <v>8</v>
+      </c>
+      <c r="H180">
+        <v>30</v>
+      </c>
+      <c r="I180">
+        <v>120</v>
+      </c>
+      <c r="J180">
+        <v>23746052096</v>
+      </c>
+      <c r="K180">
+        <v>11323</v>
+      </c>
+      <c r="L180" s="3">
+        <f t="shared" si="2"/>
+        <v>188.71666666666667</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B181" t="s">
+        <v>272</v>
+      </c>
+      <c r="C181">
+        <v>68719476736</v>
+      </c>
+      <c r="D181" t="s">
+        <v>197</v>
+      </c>
+      <c r="E181" t="s">
+        <v>77</v>
+      </c>
+      <c r="F181">
+        <v>2</v>
+      </c>
+      <c r="G181">
+        <v>8</v>
+      </c>
+      <c r="H181">
+        <v>30</v>
+      </c>
+      <c r="I181">
+        <v>120</v>
+      </c>
+      <c r="J181">
+        <v>14128513024</v>
+      </c>
+      <c r="K181">
+        <v>6737</v>
+      </c>
+      <c r="L181" s="3">
+        <f t="shared" si="2"/>
+        <v>112.28333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -19468,21 +23418,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="32" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="32" width="12" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="12" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="10" bestFit="1" customWidth="1"/>
@@ -19514,7 +23462,7 @@
     <col min="94" max="95" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>80</v>
       </c>
@@ -19522,7 +23470,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>78</v>
       </c>
@@ -19536,16 +23484,13 @@
         <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>198</v>
+        <v>272</v>
       </c>
       <c r="F2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>75</v>
       </c>
@@ -19559,16 +23504,13 @@
         <v>987.29147135416679</v>
       </c>
       <c r="E3" s="7">
-        <v>957.97197265625005</v>
+        <v>1060.7271809895833</v>
       </c>
       <c r="F3" s="7">
-        <v>890.76103515624993</v>
-      </c>
-      <c r="G3" s="7">
-        <v>4718.2809570312511</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3930.2751302083329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>188</v>
       </c>
@@ -19582,16 +23524,13 @@
         <v>32.4013671875</v>
       </c>
       <c r="E4" s="7">
-        <v>27.505957031249999</v>
+        <v>59.563899739583334</v>
       </c>
       <c r="F4" s="7">
-        <v>28.179459635416666</v>
-      </c>
-      <c r="G4" s="7">
-        <v>140.05830078124998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>143.93678385416666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>189</v>
       </c>
@@ -19605,16 +23544,13 @@
         <v>67.81302083333334</v>
       </c>
       <c r="E5" s="7">
-        <v>56.942057291666664</v>
+        <v>98.227213541666671</v>
       </c>
       <c r="F5" s="7">
-        <v>56.698632812500001</v>
-      </c>
-      <c r="G5" s="7">
-        <v>286.75703125000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>271.34355468750005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>190</v>
       </c>
@@ -19628,16 +23564,13 @@
         <v>109.96953125</v>
       </c>
       <c r="E6" s="7">
-        <v>97.379687500000003</v>
+        <v>111.87044270833333</v>
       </c>
       <c r="F6" s="7">
-        <v>98.123046875</v>
-      </c>
-      <c r="G6" s="7">
-        <v>489.12552083333333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>405.49322916666665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>191</v>
       </c>
@@ -19651,16 +23584,13 @@
         <v>110.66328125</v>
       </c>
       <c r="E7" s="7">
-        <v>110.0578125</v>
+        <v>112.69427083333333</v>
       </c>
       <c r="F7" s="7">
-        <v>59.814583333333331</v>
-      </c>
-      <c r="G7" s="7">
-        <v>498.98958333333337</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>441.81145833333335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>192</v>
       </c>
@@ -19674,16 +23604,13 @@
         <v>109.6140625</v>
       </c>
       <c r="E8" s="7">
-        <v>110.29166666666667</v>
+        <v>112.9765625</v>
       </c>
       <c r="F8" s="7">
-        <v>102.3953125</v>
-      </c>
-      <c r="G8" s="7">
-        <v>524.2265625</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>424.51614583333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>193</v>
       </c>
@@ -19697,16 +23624,13 @@
         <v>111.29062500000001</v>
       </c>
       <c r="E9" s="7">
-        <v>110.89895833333334</v>
+        <v>113.065625</v>
       </c>
       <c r="F9" s="7">
-        <v>103.62291666666667</v>
-      </c>
-      <c r="G9" s="7">
-        <v>550.12395833333335</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>448.66770833333334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>194</v>
       </c>
@@ -19720,16 +23644,13 @@
         <v>111.30208333333333</v>
       </c>
       <c r="E10" s="7">
-        <v>111.14166666666667</v>
+        <v>113.07916666666667</v>
       </c>
       <c r="F10" s="7">
-        <v>110.01041666666667</v>
-      </c>
-      <c r="G10" s="7">
-        <v>556.59166666666658</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>448.51874999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>195</v>
       </c>
@@ -19743,16 +23664,13 @@
         <v>111.52916666666667</v>
       </c>
       <c r="E11" s="7">
-        <v>111.32083333333334</v>
+        <v>113</v>
       </c>
       <c r="F11" s="7">
-        <v>110.79166666666667</v>
-      </c>
-      <c r="G11" s="7">
-        <v>557.76666666666665</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>448.6541666666667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>196</v>
       </c>
@@ -19766,16 +23684,13 @@
         <v>111.34166666666667</v>
       </c>
       <c r="E12" s="7">
-        <v>111.2</v>
+        <v>113.11666666666666</v>
       </c>
       <c r="F12" s="7">
-        <v>110.90833333333333</v>
-      </c>
-      <c r="G12" s="7">
-        <v>557.6583333333333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>448.66666666666663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>197</v>
       </c>
@@ -19789,16 +23704,13 @@
         <v>111.36666666666666</v>
       </c>
       <c r="E13" s="7">
-        <v>111.23333333333333</v>
+        <v>113.13333333333334</v>
       </c>
       <c r="F13" s="7">
-        <v>110.21666666666667</v>
-      </c>
-      <c r="G13" s="7">
-        <v>556.98333333333335</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>448.66666666666669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>76</v>
       </c>
@@ -19812,16 +23724,13 @@
         <v>566.26832682291661</v>
       </c>
       <c r="E14" s="7">
-        <v>10.185807291666668</v>
+        <v>1230.7691731770833</v>
       </c>
       <c r="F14" s="7">
-        <v>9.1374674479166664</v>
-      </c>
-      <c r="G14" s="7">
-        <v>1105.2165364583334</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2316.662434895833</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>188</v>
       </c>
@@ -19835,16 +23744,13 @@
         <v>1.63056640625</v>
       </c>
       <c r="E15" s="7">
-        <v>0.5356119791666667</v>
+        <v>10.95595703125</v>
       </c>
       <c r="F15" s="7">
-        <v>0.49254557291666667</v>
-      </c>
-      <c r="G15" s="7">
-        <v>4.0215494791666666</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13.949348958333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>189</v>
       </c>
@@ -19858,16 +23764,13 @@
         <v>3.2981770833333335</v>
       </c>
       <c r="E16" s="7">
-        <v>1.1068359375000001</v>
+        <v>21.491601562500001</v>
       </c>
       <c r="F16" s="7">
-        <v>0.96966145833333328</v>
-      </c>
-      <c r="G16" s="7">
-        <v>8.0764973958333321</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27.491601562500001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>190</v>
       </c>
@@ -19881,16 +23784,13 @@
         <v>7.30859375</v>
       </c>
       <c r="E17" s="7">
-        <v>1.056640625</v>
+        <v>42.040624999999999</v>
       </c>
       <c r="F17" s="7">
-        <v>0.92760416666666667</v>
-      </c>
-      <c r="G17" s="7">
-        <v>13.715625000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>53.772005208333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>191</v>
       </c>
@@ -19904,16 +23804,13 @@
         <v>16.58984375</v>
       </c>
       <c r="E18" s="7">
-        <v>1.0143229166666667</v>
+        <v>76.868489583333329</v>
       </c>
       <c r="F18" s="7">
-        <v>0.91223958333333333</v>
-      </c>
-      <c r="G18" s="7">
-        <v>26.329427083333336</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>101.27135416666667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>192</v>
       </c>
@@ -19927,16 +23824,13 @@
         <v>24.174479166666668</v>
       </c>
       <c r="E19" s="7">
-        <v>1.0828125</v>
+        <v>125.66979166666667</v>
       </c>
       <c r="F19" s="7">
-        <v>0.96458333333333335</v>
-      </c>
-      <c r="G19" s="7">
-        <v>40.76197916666667</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>164.38437500000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>193</v>
       </c>
@@ -19950,16 +23844,13 @@
         <v>60.43333333333333</v>
       </c>
       <c r="E20" s="7">
-        <v>1.0770833333333334</v>
+        <v>171.10312500000001</v>
       </c>
       <c r="F20" s="7">
-        <v>0.95416666666666672</v>
-      </c>
-      <c r="G20" s="7">
-        <v>89.730208333333337</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>258.80208333333337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>194</v>
       </c>
@@ -19973,16 +23864,13 @@
         <v>96.662499999999994</v>
       </c>
       <c r="E21" s="7">
-        <v>1.1000000000000001</v>
+        <v>194.31874999999999</v>
       </c>
       <c r="F21" s="7">
-        <v>0.99583333333333335</v>
-      </c>
-      <c r="G21" s="7">
-        <v>151.81041666666667</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>344.0333333333333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>195</v>
       </c>
@@ -19996,16 +23884,13 @@
         <v>117.22083333333333</v>
       </c>
       <c r="E22" s="7">
-        <v>1.1041666666666667</v>
+        <v>199.4375</v>
       </c>
       <c r="F22" s="7">
-        <v>0.96250000000000002</v>
-      </c>
-      <c r="G22" s="7">
-        <v>199.41249999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>396.7833333333333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>196</v>
       </c>
@@ -20019,16 +23904,13 @@
         <v>119.26666666666667</v>
       </c>
       <c r="E23" s="7">
-        <v>1.0249999999999999</v>
+        <v>200.16666666666666</v>
       </c>
       <c r="F23" s="7">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="G23" s="7">
-        <v>267.375</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>465.54166666666663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>197</v>
       </c>
@@ -20042,16 +23924,13 @@
         <v>119.68333333333334</v>
       </c>
       <c r="E24" s="7">
-        <v>1.0833333333333333</v>
+        <v>188.71666666666667</v>
       </c>
       <c r="F24" s="7">
-        <v>0.98333333333333328</v>
-      </c>
-      <c r="G24" s="7">
-        <v>303.98333333333329</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>490.63333333333333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>77</v>
       </c>
@@ -20065,16 +23944,13 @@
         <v>405.53141276041669</v>
       </c>
       <c r="E25" s="7">
-        <v>5.1893880208333334</v>
+        <v>736.90338541666654</v>
       </c>
       <c r="F25" s="7">
-        <v>4.8570312499999995</v>
-      </c>
-      <c r="G25" s="7">
-        <v>703.27897135416674</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1430.1359375000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>188</v>
       </c>
@@ -20088,16 +23964,13 @@
         <v>0.74195963541666665</v>
       </c>
       <c r="E26" s="7">
-        <v>0.27161458333333333</v>
+        <v>6.8543619791666668</v>
       </c>
       <c r="F26" s="7">
-        <v>0.25462239583333335</v>
-      </c>
-      <c r="G26" s="7">
-        <v>1.9360026041666665</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8.2641276041666671</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>189</v>
       </c>
@@ -20111,16 +23984,13 @@
         <v>1.5552083333333333</v>
       </c>
       <c r="E27" s="7">
-        <v>0.53704427083333328</v>
+        <v>12.689388020833333</v>
       </c>
       <c r="F27" s="7">
-        <v>0.45540364583333331</v>
-      </c>
-      <c r="G27" s="7">
-        <v>3.8781250000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15.575065104166665</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>190</v>
       </c>
@@ -20134,16 +24004,13 @@
         <v>3.5837239583333331</v>
       </c>
       <c r="E28" s="7">
-        <v>0.49895833333333334</v>
+        <v>25.044010416666666</v>
       </c>
       <c r="F28" s="7">
-        <v>0.46445312500000002</v>
-      </c>
-      <c r="G28" s="7">
-        <v>6.7705729166666666</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30.851171874999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>191</v>
       </c>
@@ -20157,16 +24024,13 @@
         <v>6.7104166666666663</v>
       </c>
       <c r="E29" s="7">
-        <v>0.53281250000000002</v>
+        <v>45.584895833333334</v>
       </c>
       <c r="F29" s="7">
-        <v>0.47630208333333335</v>
-      </c>
-      <c r="G29" s="7">
-        <v>11.702604166666667</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>56.278385416666666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>192</v>
       </c>
@@ -20180,16 +24044,13 @@
         <v>13.4609375</v>
       </c>
       <c r="E30" s="7">
-        <v>0.5229166666666667</v>
+        <v>85.649479166666666</v>
       </c>
       <c r="F30" s="7">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="G30" s="7">
-        <v>21.856249999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>106.50364583333334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>193</v>
       </c>
@@ -20203,16 +24064,13 @@
         <v>27.685416666666665</v>
       </c>
       <c r="E31" s="7">
-        <v>0.53229166666666672</v>
+        <v>111.97083333333333</v>
       </c>
       <c r="F31" s="7">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="G31" s="7">
-        <v>42.362499999999997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>153.31145833333332</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>194</v>
       </c>
@@ -20226,16 +24084,13 @@
         <v>42.247916666666669</v>
       </c>
       <c r="E32" s="7">
-        <v>0.55625000000000002</v>
+        <v>112.24375000000001</v>
       </c>
       <c r="F32" s="7">
-        <v>0.50416666666666665</v>
-      </c>
-      <c r="G32" s="7">
-        <v>68.885416666666671</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>180.06875000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>195</v>
       </c>
@@ -20249,16 +24104,13 @@
         <v>85.787499999999994</v>
       </c>
       <c r="E33" s="7">
-        <v>0.61250000000000004</v>
+        <v>112.28333333333333</v>
       </c>
       <c r="F33" s="7">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G33" s="7">
-        <v>127.40416666666665</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>238.52499999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>196</v>
       </c>
@@ -20272,16 +24124,13 @@
         <v>111.19166666666666</v>
       </c>
       <c r="E34" s="7">
-        <v>0.54166666666666663</v>
+        <v>112.3</v>
       </c>
       <c r="F34" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="G34" s="7">
-        <v>192.75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>303.90833333333336</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>197</v>
       </c>
@@ -20295,16 +24144,13 @@
         <v>112.56666666666666</v>
       </c>
       <c r="E35" s="7">
-        <v>0.58333333333333337</v>
+        <v>112.28333333333333</v>
       </c>
       <c r="F35" s="7">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="G35" s="7">
-        <v>225.73333333333335</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>336.85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>79</v>
       </c>
@@ -20318,13 +24164,10 @@
         <v>1959.0912109374999</v>
       </c>
       <c r="E36" s="7">
-        <v>973.34716796875</v>
+        <v>3028.3997395833335</v>
       </c>
       <c r="F36" s="7">
-        <v>904.75553385416652</v>
-      </c>
-      <c r="G36" s="7">
-        <v>6526.7764648437505</v>
+        <v>7677.0735026041657</v>
       </c>
     </row>
   </sheetData>
